--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karan_mudaliar/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC741B-A8D9-F248-9702-E1D38365CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18358BF1-2698-D848-AC9C-AABCB4AF354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" firstSheet="5" activeTab="11" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="3" r:id="rId2"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="4" r:id="rId3"/>
     <sheet name="Balance Sheet $" sheetId="5" r:id="rId4"/>
-    <sheet name="Balance Sheet Percentage Comp" sheetId="6" r:id="rId5"/>
-    <sheet name="Analysis of Conc of Credits" sheetId="7" r:id="rId6"/>
-    <sheet name="Interest rate risk analysis" sheetId="8" r:id="rId7"/>
+    <sheet name="Balance Sheet Percentage " sheetId="6" r:id="rId5"/>
+    <sheet name="Credit Concentration" sheetId="7" r:id="rId6"/>
+    <sheet name="Interest Rate Risk" sheetId="8" r:id="rId7"/>
     <sheet name="Liquidity and Funding" sheetId="9" r:id="rId8"/>
-    <sheet name="Liquidity and Investment Portfo" sheetId="10" r:id="rId9"/>
+    <sheet name="Liquidity and Investment" sheetId="10" r:id="rId9"/>
     <sheet name="Capital Analysis A" sheetId="11" r:id="rId10"/>
     <sheet name="Capital Analysis B" sheetId="12" r:id="rId11"/>
     <sheet name="Capital Analysis C" sheetId="13" r:id="rId12"/>
@@ -2014,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84B3A2F-88C0-2E46-A0AC-B9FD74969515}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
@@ -11019,8 +11019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877AC2AA-C2F6-D048-ACAB-EDA609973335}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13769,7 +13769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0748592-80AA-8846-BC0A-9051689CD807}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karan_mudaliar/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18358BF1-2698-D848-AC9C-AABCB4AF354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F3946-82B0-6449-88C1-28D31F85379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" firstSheet="5" activeTab="11" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" firstSheet="5" activeTab="8" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -11019,7 +11019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877AC2AA-C2F6-D048-ACAB-EDA609973335}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -37893,7 +37893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27A711-3326-8748-BBA2-0A8473E9CC2B}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847A380-BF54-7941-A162-ADA87E6269E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56687B6-E355-1243-AFBB-BF20CFC2FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="6" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="23160" windowHeight="17440" firstSheet="1" activeTab="6" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -24548,63 +24548,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBE220D-DCC4-9346-89FD-72A181314EAA}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>285</v>
       </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L1" s="1">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>254</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -24632,14 +24635,14 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>255</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -24667,14 +24670,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>256</v>
       </c>
+      <c r="B6" s="3">
+        <v>4100</v>
+      </c>
       <c r="C6" s="3">
         <v>4100</v>
       </c>
@@ -24702,14 +24705,14 @@
       <c r="K6" s="3">
         <v>4100</v>
       </c>
-      <c r="L6" s="3">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>257</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -24737,54 +24740,54 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>258</v>
       </c>
+      <c r="B8" s="3">
+        <v>11778</v>
+      </c>
       <c r="C8" s="3">
-        <v>11778</v>
+        <v>11457</v>
       </c>
       <c r="D8" s="3">
-        <v>11457</v>
+        <v>10966</v>
       </c>
       <c r="E8" s="3">
-        <v>10966</v>
+        <v>10937</v>
       </c>
       <c r="F8" s="3">
-        <v>10937</v>
+        <v>10379</v>
       </c>
       <c r="G8" s="3">
-        <v>10379</v>
+        <v>10316</v>
       </c>
       <c r="H8" s="3">
-        <v>10316</v>
+        <v>9911</v>
       </c>
       <c r="I8" s="3">
-        <v>9911</v>
+        <v>9949</v>
       </c>
       <c r="J8" s="3">
-        <v>9949</v>
+        <v>9682</v>
       </c>
       <c r="K8" s="3">
-        <v>9682</v>
-      </c>
-      <c r="L8" s="3">
         <v>9830</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>260</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -24812,14 +24815,14 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>261</v>
       </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -24847,20 +24850,20 @@
       <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>262</v>
       </c>
+      <c r="B13" s="3">
+        <v>1172</v>
+      </c>
       <c r="C13" s="3">
-        <v>1172</v>
-      </c>
-      <c r="D13" s="3">
         <v>1103</v>
       </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
@@ -24870,26 +24873,26 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
+      <c r="H13" s="3">
+        <v>1005</v>
       </c>
       <c r="I13" s="3">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="J13" s="3">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="K13" s="3">
-        <v>1016</v>
-      </c>
-      <c r="L13" s="3">
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>263</v>
       </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -24917,14 +24920,14 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>264</v>
       </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -24952,20 +24955,20 @@
       <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>265</v>
       </c>
+      <c r="B16" s="3">
+        <v>1172</v>
+      </c>
       <c r="C16" s="3">
-        <v>1172</v>
-      </c>
-      <c r="D16" s="3">
         <v>1103</v>
       </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
@@ -24975,37 +24978,37 @@
       <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
+      <c r="H16" s="3">
+        <v>1005</v>
       </c>
       <c r="I16" s="3">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="J16" s="3">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="K16" s="3">
-        <v>1016</v>
-      </c>
-      <c r="L16" s="3">
         <v>1046</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>267</v>
       </c>
+      <c r="B19" s="3">
+        <v>12950</v>
+      </c>
       <c r="C19" s="3">
-        <v>12950</v>
-      </c>
-      <c r="D19" s="3">
         <v>12560</v>
       </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
@@ -25015,26 +25018,26 @@
       <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
+      <c r="H19" s="3">
+        <v>10916</v>
       </c>
       <c r="I19" s="3">
-        <v>10916</v>
+        <v>10974</v>
       </c>
       <c r="J19" s="3">
-        <v>10974</v>
+        <v>10698</v>
       </c>
       <c r="K19" s="3">
-        <v>10698</v>
-      </c>
-      <c r="L19" s="3">
         <v>10876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>268</v>
       </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -25062,14 +25065,14 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>269</v>
       </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -25097,20 +25100,20 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>270</v>
       </c>
+      <c r="B22" s="3">
+        <v>12950</v>
+      </c>
       <c r="C22" s="3">
-        <v>12950</v>
-      </c>
-      <c r="D22" s="3">
         <v>12560</v>
       </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
@@ -25120,42 +25123,42 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
-        <v>13</v>
+      <c r="H22" s="3">
+        <v>10916</v>
       </c>
       <c r="I22" s="3">
-        <v>10916</v>
+        <v>10974</v>
       </c>
       <c r="J22" s="3">
-        <v>10974</v>
+        <v>10698</v>
       </c>
       <c r="K22" s="3">
-        <v>10698</v>
-      </c>
-      <c r="L22" s="3">
         <v>10876</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>273</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>440</v>
       </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
         <v>1053</v>
       </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
@@ -25165,32 +25168,32 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <v>670</v>
       </c>
-      <c r="J26" s="3">
+      <c r="I26" s="3">
         <v>1066</v>
       </c>
+      <c r="J26">
+        <v>374</v>
+      </c>
       <c r="K26">
-        <v>374</v>
-      </c>
-      <c r="L26">
         <v>874</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>274</v>
       </c>
+      <c r="B27" s="3">
+        <v>35523</v>
+      </c>
       <c r="C27" s="3">
-        <v>35523</v>
-      </c>
-      <c r="D27" s="3">
         <v>33607</v>
       </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
@@ -25200,32 +25203,32 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
+      <c r="H27" s="3">
+        <v>19851</v>
       </c>
       <c r="I27" s="3">
-        <v>19851</v>
+        <v>18412</v>
       </c>
       <c r="J27" s="3">
-        <v>18412</v>
+        <v>18845</v>
       </c>
       <c r="K27" s="3">
-        <v>18845</v>
-      </c>
-      <c r="L27" s="3">
         <v>17143</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>275</v>
       </c>
+      <c r="B28" s="3">
+        <v>56228</v>
+      </c>
       <c r="C28" s="3">
-        <v>56228</v>
-      </c>
-      <c r="D28" s="3">
         <v>50722</v>
       </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
@@ -25235,32 +25238,32 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
+      <c r="H28" s="3">
+        <v>59043</v>
       </c>
       <c r="I28" s="3">
-        <v>59043</v>
+        <v>61789</v>
       </c>
       <c r="J28" s="3">
-        <v>61789</v>
+        <v>60542</v>
       </c>
       <c r="K28" s="3">
-        <v>60542</v>
-      </c>
-      <c r="L28" s="3">
         <v>63297</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>276</v>
       </c>
+      <c r="B29" s="3">
+        <v>92191</v>
+      </c>
       <c r="C29" s="3">
-        <v>92191</v>
-      </c>
-      <c r="D29" s="3">
         <v>85382</v>
       </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
@@ -25270,32 +25273,32 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
+      <c r="H29" s="3">
+        <v>79563</v>
       </c>
       <c r="I29" s="3">
-        <v>79563</v>
+        <v>81266</v>
       </c>
       <c r="J29" s="3">
-        <v>81266</v>
+        <v>79761</v>
       </c>
       <c r="K29" s="3">
-        <v>79761</v>
-      </c>
-      <c r="L29" s="3">
         <v>81314</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>277</v>
       </c>
+      <c r="B30" s="3">
+        <v>1159</v>
+      </c>
       <c r="C30" s="3">
-        <v>1159</v>
-      </c>
-      <c r="D30" s="3">
         <v>1162</v>
       </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
@@ -25305,36 +25308,36 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
-        <v>13</v>
+      <c r="H30" s="3">
+        <v>1450</v>
       </c>
       <c r="I30" s="3">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="J30" s="3">
-        <v>1453</v>
+        <v>1317</v>
       </c>
       <c r="K30" s="3">
-        <v>1317</v>
-      </c>
-      <c r="L30" s="3">
         <v>1663</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>273</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -25345,8 +25348,8 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -25357,19 +25360,19 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>274</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -25380,8 +25383,8 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -25392,20 +25395,20 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>275</v>
       </c>
+      <c r="B35" s="3">
+        <v>1606</v>
+      </c>
       <c r="C35" s="3">
-        <v>1606</v>
-      </c>
-      <c r="D35" s="3">
         <v>2889</v>
       </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
@@ -25415,32 +25418,32 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
+      <c r="H35">
+        <v>855</v>
       </c>
       <c r="I35">
-        <v>855</v>
-      </c>
-      <c r="J35">
         <v>741</v>
       </c>
+      <c r="J35" s="3">
+        <v>1557</v>
+      </c>
       <c r="K35" s="3">
-        <v>1557</v>
-      </c>
-      <c r="L35" s="3">
         <v>2403</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>279</v>
       </c>
+      <c r="B36" s="3">
+        <v>1606</v>
+      </c>
       <c r="C36" s="3">
-        <v>1606</v>
-      </c>
-      <c r="D36" s="3">
         <v>2889</v>
       </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
@@ -25450,31 +25453,31 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
+      <c r="H36">
+        <v>855</v>
       </c>
       <c r="I36">
-        <v>855</v>
-      </c>
-      <c r="J36">
         <v>741</v>
       </c>
+      <c r="J36" s="3">
+        <v>1557</v>
+      </c>
       <c r="K36" s="3">
-        <v>1557</v>
-      </c>
-      <c r="L36" s="3">
         <v>2403</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>277</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0</v>
+      <c r="D37" t="s">
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -25485,8 +25488,8 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -25497,25 +25500,25 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>252</v>
       </c>
+      <c r="B40" s="3">
+        <v>93797</v>
+      </c>
       <c r="C40" s="3">
-        <v>93797</v>
-      </c>
-      <c r="D40" s="3">
         <v>88271</v>
       </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
@@ -25525,32 +25528,32 @@
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s">
-        <v>13</v>
+      <c r="H40" s="3">
+        <v>80419</v>
       </c>
       <c r="I40" s="3">
-        <v>80419</v>
+        <v>82008</v>
       </c>
       <c r="J40" s="3">
-        <v>82008</v>
+        <v>81318</v>
       </c>
       <c r="K40" s="3">
-        <v>81318</v>
-      </c>
-      <c r="L40" s="3">
         <v>83717</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>281</v>
       </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
       <c r="C41">
-        <v>16</v>
-      </c>
-      <c r="D41">
         <v>86</v>
       </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
@@ -25560,31 +25563,31 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="s">
-        <v>13</v>
+      <c r="H41">
+        <v>145</v>
       </c>
       <c r="I41">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="J41">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K41">
-        <v>133</v>
-      </c>
-      <c r="L41">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>282</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42">
-        <v>0</v>
+      <c r="D42" t="s">
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -25595,8 +25598,8 @@
       <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="s">
-        <v>13</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -25607,14 +25610,14 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>283</v>
       </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
@@ -25642,20 +25645,20 @@
       <c r="K43" t="s">
         <v>13</v>
       </c>
-      <c r="L43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>284</v>
       </c>
+      <c r="B44" s="3">
+        <v>93781</v>
+      </c>
       <c r="C44" s="3">
-        <v>93781</v>
-      </c>
-      <c r="D44" s="3">
         <v>88185</v>
       </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
@@ -25665,19 +25668,16 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="s">
-        <v>13</v>
+      <c r="H44" s="3">
+        <v>80274</v>
       </c>
       <c r="I44" s="3">
-        <v>80274</v>
+        <v>81886</v>
       </c>
       <c r="J44" s="3">
-        <v>81886</v>
+        <v>81185</v>
       </c>
       <c r="K44" s="3">
-        <v>81185</v>
-      </c>
-      <c r="L44" s="3">
         <v>83612</v>
       </c>
     </row>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56687B6-E355-1243-AFBB-BF20CFC2FEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB959459-F20C-084A-9340-40486E523838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="23160" windowHeight="17440" firstSheet="1" activeTab="6" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="5" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -18255,11 +18255,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CBA93-4EF9-384F-BC5E-9C557A143CBE}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -20926,437 +20930,437 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="3">
+      <c r="B34" s="3">
         <v>101477</v>
       </c>
-      <c r="F34" s="3">
+      <c r="E34" s="3">
         <v>95885</v>
       </c>
-      <c r="I34" s="3">
+      <c r="H34" s="3">
         <v>102153</v>
       </c>
-      <c r="L34" s="3">
+      <c r="K34" s="3">
         <v>93470</v>
       </c>
-      <c r="O34" s="3">
+      <c r="N34" s="3">
         <v>87136</v>
       </c>
-      <c r="R34" s="3">
+      <c r="Q34" s="3">
         <v>82270</v>
       </c>
-      <c r="U34" s="3">
+      <c r="T34" s="3">
         <v>74954</v>
       </c>
-      <c r="X34" s="3">
+      <c r="W34" s="3">
         <v>76443</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="Z34" s="3">
         <v>74495</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AC34" s="3">
         <v>73609</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="3">
+      <c r="B35" s="3">
         <v>14891</v>
       </c>
-      <c r="F35" s="3">
+      <c r="E35" s="3">
         <v>15475</v>
       </c>
-      <c r="I35" s="3">
+      <c r="H35" s="3">
         <v>14222</v>
       </c>
-      <c r="L35" s="3">
+      <c r="K35" s="3">
         <v>13744</v>
       </c>
-      <c r="O35" s="3">
+      <c r="N35" s="3">
         <v>13808</v>
       </c>
-      <c r="R35" s="3">
+      <c r="Q35" s="3">
         <v>12303</v>
       </c>
-      <c r="U35" s="3">
+      <c r="T35" s="3">
         <v>12275</v>
       </c>
-      <c r="X35" s="3">
+      <c r="W35" s="3">
         <v>11408</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="Z35" s="3">
         <v>10925</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AC35" s="3">
         <v>9720</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>181</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>167</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>106</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>92</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>319</v>
       </c>
-      <c r="O36">
+      <c r="N36">
         <v>178</v>
       </c>
-      <c r="R36">
+      <c r="Q36">
         <v>92</v>
       </c>
-      <c r="U36">
+      <c r="T36">
         <v>102</v>
       </c>
-      <c r="X36">
+      <c r="W36">
         <v>135</v>
       </c>
-      <c r="AA36">
+      <c r="Z36">
         <v>129</v>
       </c>
-      <c r="AD36">
+      <c r="AC36">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>182</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>183</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="3">
+      <c r="B39" s="3">
         <v>116535</v>
       </c>
-      <c r="F39" s="3">
+      <c r="E39" s="3">
         <v>111466</v>
       </c>
-      <c r="I39" s="3">
+      <c r="H39" s="3">
         <v>116467</v>
       </c>
-      <c r="L39" s="3">
+      <c r="K39" s="3">
         <v>107533</v>
       </c>
-      <c r="O39" s="3">
+      <c r="N39" s="3">
         <v>101122</v>
       </c>
-      <c r="R39" s="3">
+      <c r="Q39" s="3">
         <v>94665</v>
       </c>
-      <c r="U39" s="3">
+      <c r="T39" s="3">
         <v>87331</v>
       </c>
-      <c r="X39" s="3">
+      <c r="W39" s="3">
         <v>87986</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="Z39" s="3">
         <v>85549</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AC39" s="3">
         <v>83384</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="3">
+      <c r="B41" s="3">
         <v>59223</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E41" s="3">
         <v>56061</v>
       </c>
-      <c r="I41" s="3">
+      <c r="H41" s="3">
         <v>60739</v>
       </c>
-      <c r="L41" s="3">
+      <c r="K41" s="3">
         <v>52971</v>
       </c>
-      <c r="O41" s="3">
+      <c r="N41" s="3">
         <v>42218</v>
       </c>
-      <c r="R41" s="3">
+      <c r="Q41" s="3">
         <v>39504</v>
       </c>
-      <c r="U41" s="3">
+      <c r="T41" s="3">
         <v>34937</v>
       </c>
-      <c r="X41" s="3">
+      <c r="W41" s="3">
         <v>33592</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="Z41" s="3">
         <v>30193</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AC41" s="3">
         <v>29723</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="3">
+      <c r="B42" s="3">
         <v>10111</v>
       </c>
-      <c r="F42" s="3">
+      <c r="E42" s="3">
         <v>9748</v>
       </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3">
         <v>9274</v>
       </c>
-      <c r="L42" s="3">
+      <c r="K42" s="3">
         <v>9257</v>
       </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
         <v>8819</v>
       </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
         <v>8299</v>
       </c>
-      <c r="U42" s="3">
+      <c r="T42" s="3">
         <v>7782</v>
       </c>
-      <c r="X42" s="3">
+      <c r="W42" s="3">
         <v>9280</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="Z42" s="3">
         <v>10976</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AC42" s="3">
         <v>10888</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="3">
+      <c r="B43" s="3">
         <v>47201</v>
       </c>
-      <c r="F43" s="3">
+      <c r="E43" s="3">
         <v>45657</v>
       </c>
-      <c r="I43" s="3">
+      <c r="H43" s="3">
         <v>46454</v>
       </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
         <v>45305</v>
       </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
         <v>50085</v>
       </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
         <v>46862</v>
       </c>
-      <c r="U43" s="3">
+      <c r="T43" s="3">
         <v>44612</v>
       </c>
-      <c r="X43" s="3">
+      <c r="W43" s="3">
         <v>45114</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="Z43" s="3">
         <v>44380</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AC43" s="3">
         <v>42773</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="3">
+      <c r="B44" s="3">
         <v>116535</v>
       </c>
-      <c r="F44" s="3">
+      <c r="E44" s="3">
         <v>111466</v>
       </c>
-      <c r="I44" s="3">
+      <c r="H44" s="3">
         <v>116467</v>
       </c>
-      <c r="L44" s="3">
+      <c r="K44" s="3">
         <v>107533</v>
       </c>
-      <c r="O44" s="3">
+      <c r="N44" s="3">
         <v>101122</v>
       </c>
-      <c r="R44" s="3">
+      <c r="Q44" s="3">
         <v>94665</v>
       </c>
-      <c r="U44" s="3">
+      <c r="T44" s="3">
         <v>87331</v>
       </c>
-      <c r="X44" s="3">
+      <c r="W44" s="3">
         <v>87986</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="Z44" s="3">
         <v>85549</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AC44" s="3">
         <v>83384</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>121</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" t="s">
-        <v>13</v>
-      </c>
-      <c r="R45" t="s">
-        <v>13</v>
-      </c>
-      <c r="U45" t="s">
-        <v>13</v>
-      </c>
-      <c r="X45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="T45" t="s">
+        <v>13</v>
+      </c>
+      <c r="W45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="3">
+      <c r="B46" s="3">
         <v>116535</v>
       </c>
-      <c r="F46" s="3">
+      <c r="E46" s="3">
         <v>111466</v>
       </c>
-      <c r="I46" s="3">
+      <c r="H46" s="3">
         <v>116467</v>
       </c>
-      <c r="L46" s="3">
+      <c r="K46" s="3">
         <v>107533</v>
       </c>
-      <c r="O46" s="3">
+      <c r="N46" s="3">
         <v>101122</v>
       </c>
-      <c r="R46" s="3">
+      <c r="Q46" s="3">
         <v>94665</v>
       </c>
-      <c r="U46" s="3">
+      <c r="T46" s="3">
         <v>87331</v>
       </c>
-      <c r="X46" s="3">
+      <c r="W46" s="3">
         <v>87986</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="Z46" s="3">
         <v>85549</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AC46" s="3">
         <v>83384</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -21381,17 +21385,17 @@
       <c r="T49" s="3">
         <v>19205</v>
       </c>
-      <c r="X49" s="3">
+      <c r="W49" s="3">
         <v>20675</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="Z49" s="3">
         <v>18515</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AC49" s="3">
         <v>21351</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -21416,17 +21420,17 @@
       <c r="T50" s="3">
         <v>19205</v>
       </c>
-      <c r="X50" s="3">
+      <c r="W50" s="3">
         <v>20169</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="Z50" s="3">
         <v>17506</v>
       </c>
-      <c r="AD50" s="3">
+      <c r="AC50" s="3">
         <v>20343</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -21451,17 +21455,17 @@
       <c r="T51" s="3">
         <v>73126</v>
       </c>
-      <c r="X51" s="3">
+      <c r="W51" s="3">
         <v>73311</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="Z51" s="3">
         <v>71938</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AC51" s="3">
         <v>71033</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -21486,17 +21490,17 @@
       <c r="T52" s="3">
         <v>10302</v>
       </c>
-      <c r="X52" s="3">
+      <c r="W52" s="3">
         <v>10045</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="Z52" s="3">
         <v>9988</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AC52" s="3">
         <v>10194</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -21521,17 +21525,17 @@
       <c r="T53">
         <v>423</v>
       </c>
-      <c r="X53">
+      <c r="W53">
         <v>495</v>
       </c>
-      <c r="AA53">
+      <c r="Z53">
         <v>369</v>
       </c>
-      <c r="AD53">
+      <c r="AC53">
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>207</v>
       </c>
@@ -21556,17 +21560,17 @@
       <c r="T54" s="3">
         <v>14205</v>
       </c>
-      <c r="X54" s="3">
+      <c r="W54" s="3">
         <v>14169</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="Z54" s="3">
         <v>12602</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AC54" s="3">
         <v>11343</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -21591,17 +21595,17 @@
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="X55">
+      <c r="W55">
         <v>506</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="Z55" s="3">
         <v>1009</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AC55" s="3">
         <v>1008</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -21626,17 +21630,17 @@
       <c r="T56" s="3">
         <v>5000</v>
       </c>
-      <c r="X56" s="3">
+      <c r="W56" s="3">
         <v>6000</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="Z56" s="3">
         <v>3000</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AC56" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>210</v>
       </c>
@@ -21661,17 +21665,17 @@
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -21696,17 +21700,17 @@
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>212</v>
       </c>
@@ -21731,17 +21735,17 @@
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>213</v>
       </c>
@@ -21766,17 +21770,17 @@
       <c r="T60">
         <v>0</v>
       </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -21801,17 +21805,17 @@
       <c r="T61">
         <v>0</v>
       </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1904</v>
       </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -21836,17 +21840,17 @@
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>216</v>
       </c>
@@ -21871,17 +21875,17 @@
       <c r="T63">
         <v>0</v>
       </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -21906,17 +21910,17 @@
       <c r="T64" s="3">
         <v>5165</v>
       </c>
-      <c r="X64" s="3">
+      <c r="W64" s="3">
         <v>5108</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="Z64" s="3">
         <v>5044</v>
       </c>
-      <c r="AD64" s="3">
+      <c r="AC64" s="3">
         <v>4487</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>218</v>
       </c>
@@ -21941,13 +21945,13 @@
       <c r="T65">
         <v>0</v>
       </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
         <v>0</v>
       </c>
     </row>
@@ -21960,8 +21964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27A711-3326-8748-BBA2-0A8473E9CC2B}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24286,13 +24290,13 @@
       <c r="T31" s="3">
         <v>3158</v>
       </c>
-      <c r="X31" s="3">
+      <c r="W31" s="3">
         <v>6049</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="Z31" s="3">
         <v>2128</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AC31" s="3">
         <v>4819</v>
       </c>
     </row>
@@ -24321,17 +24325,17 @@
       <c r="T32" s="3">
         <v>29831</v>
       </c>
-      <c r="X32" s="3">
+      <c r="W32" s="3">
         <v>28184</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="Z32" s="3">
         <v>17982</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AC32" s="3">
         <v>21648</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -24356,17 +24360,17 @@
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -24391,17 +24395,17 @@
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -24426,17 +24430,17 @@
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -24461,17 +24465,17 @@
       <c r="T36" s="3">
         <v>14242</v>
       </c>
-      <c r="X36" s="3">
+      <c r="W36" s="3">
         <v>12398</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="Z36" s="3">
         <v>12948</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AC36" s="3">
         <v>11290</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -24496,17 +24500,17 @@
       <c r="T37" s="3">
         <v>73206</v>
       </c>
-      <c r="X37" s="3">
+      <c r="W37" s="3">
         <v>74216</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="Z37" s="3">
         <v>71844</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AC37" s="3">
         <v>75586</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -24531,13 +24535,13 @@
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <v>0</v>
       </c>
     </row>
@@ -24550,7 +24554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBE220D-DCC4-9346-89FD-72A181314EAA}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB959459-F20C-084A-9340-40486E523838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8499CA14-1370-44A6-8C63-8F1E7EA9B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="5" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Balance Sheet Percentage " sheetId="6" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="8" r:id="rId4"/>
     <sheet name="Liquidity and Funding" sheetId="9" r:id="rId5"/>
-    <sheet name="Liquidity and Investment" sheetId="10" r:id="rId6"/>
-    <sheet name="Capital Analysis D" sheetId="14" r:id="rId7"/>
+    <sheet name="Liquidity and Funding - Totals" sheetId="15" r:id="rId6"/>
+    <sheet name="Liquidity &amp; Investment" sheetId="10" r:id="rId7"/>
+    <sheet name="Liquidity &amp; Investment - Totals" sheetId="16" r:id="rId8"/>
+    <sheet name="Capital Analysis D" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="286">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -1259,9 +1261,9 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1451,12 +1453,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2976,12 +2978,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3456,12 +3458,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3936,7 +3938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -4221,12 +4223,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4511,12 +4513,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4896,12 +4898,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -5376,7 +5378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>106758</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -5459,9 +5461,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -7456,7 +7458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -8311,12 +8313,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -8506,7 +8508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -8886,7 +8888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -9456,7 +9458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -9836,7 +9838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10121,7 +10123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -10596,7 +10598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -10786,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -10894,9 +10896,9 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -11086,7 +11088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -11276,7 +11278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -11941,7 +11943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -12131,7 +12133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -12416,7 +12418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -12511,7 +12513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -12606,7 +12608,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -12796,7 +12798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -12891,7 +12893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -12986,7 +12988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -13081,12 +13083,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -13181,7 +13183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -13371,7 +13373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -13466,7 +13468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -13656,7 +13658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -13751,7 +13753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -13846,7 +13848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -13941,7 +13943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -14131,7 +14133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -14226,7 +14228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -14321,7 +14323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -14416,7 +14418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -14511,7 +14513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -14701,7 +14703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -14891,7 +14893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -14986,7 +14988,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -15081,7 +15083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>150</v>
       </c>
@@ -15284,9 +15286,9 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -15381,7 +15383,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>151</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -15666,7 +15668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -15856,7 +15858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -15951,7 +15953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -16046,7 +16048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -16236,7 +16238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -16331,7 +16333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -16521,7 +16523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16616,12 +16618,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -16716,7 +16718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -16811,7 +16813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -17001,7 +17003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -17096,12 +17098,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -17291,7 +17293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>171</v>
       </c>
@@ -17386,7 +17388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -17481,7 +17483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -17576,7 +17578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -17671,7 +17673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -17766,7 +17768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -17861,7 +17863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -17956,12 +17958,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -18151,7 +18153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -18253,19 +18255,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CBA93-4EF9-384F-BC5E-9C557A143CBE}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -18360,7 +18371,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -18455,7 +18466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -18550,7 +18561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -18645,7 +18656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -18740,7 +18751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -18835,7 +18846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -18930,7 +18941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -19025,7 +19036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -19120,7 +19131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -19215,7 +19226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -19310,7 +19321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -19405,7 +19416,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -19500,7 +19511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -19595,12 +19606,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -19695,7 +19706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -19790,7 +19801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -19885,7 +19896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -19980,7 +19991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -20075,7 +20086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -20170,7 +20181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -20265,7 +20276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -20360,7 +20371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -20455,7 +20466,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -20550,7 +20561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -20645,7 +20656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -20740,7 +20751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -20835,7 +20846,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -20930,1030 +20941,188 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="3">
-        <v>101477</v>
-      </c>
-      <c r="E34" s="3">
-        <v>95885</v>
-      </c>
-      <c r="H34" s="3">
-        <v>102153</v>
-      </c>
-      <c r="K34" s="3">
-        <v>93470</v>
-      </c>
-      <c r="N34" s="3">
-        <v>87136</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>82270</v>
-      </c>
-      <c r="T34" s="3">
-        <v>74954</v>
-      </c>
-      <c r="W34" s="3">
-        <v>76443</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>74495</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>73609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="3">
-        <v>14891</v>
-      </c>
-      <c r="E35" s="3">
-        <v>15475</v>
-      </c>
-      <c r="H35" s="3">
-        <v>14222</v>
-      </c>
-      <c r="K35" s="3">
-        <v>13744</v>
-      </c>
-      <c r="N35" s="3">
-        <v>13808</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>12303</v>
-      </c>
-      <c r="T35" s="3">
-        <v>12275</v>
-      </c>
-      <c r="W35" s="3">
-        <v>11408</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>10925</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>9720</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36">
-        <v>167</v>
-      </c>
-      <c r="E36">
-        <v>106</v>
-      </c>
-      <c r="H36">
-        <v>92</v>
-      </c>
-      <c r="K36">
-        <v>319</v>
-      </c>
-      <c r="N36">
-        <v>178</v>
-      </c>
-      <c r="Q36">
-        <v>92</v>
-      </c>
-      <c r="T36">
-        <v>102</v>
-      </c>
-      <c r="W36">
-        <v>135</v>
-      </c>
-      <c r="Z36">
-        <v>129</v>
-      </c>
-      <c r="AC36">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="3">
-        <v>116535</v>
-      </c>
-      <c r="E39" s="3">
-        <v>111466</v>
-      </c>
-      <c r="H39" s="3">
-        <v>116467</v>
-      </c>
-      <c r="K39" s="3">
-        <v>107533</v>
-      </c>
-      <c r="N39" s="3">
-        <v>101122</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>94665</v>
-      </c>
-      <c r="T39" s="3">
-        <v>87331</v>
-      </c>
-      <c r="W39" s="3">
-        <v>87986</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>85549</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>83384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="3">
-        <v>59223</v>
-      </c>
-      <c r="E41" s="3">
-        <v>56061</v>
-      </c>
-      <c r="H41" s="3">
-        <v>60739</v>
-      </c>
-      <c r="K41" s="3">
-        <v>52971</v>
-      </c>
-      <c r="N41" s="3">
-        <v>42218</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>39504</v>
-      </c>
-      <c r="T41" s="3">
-        <v>34937</v>
-      </c>
-      <c r="W41" s="3">
-        <v>33592</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>30193</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>29723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="3">
-        <v>10111</v>
-      </c>
-      <c r="E42" s="3">
-        <v>9748</v>
-      </c>
-      <c r="H42" s="3">
-        <v>9274</v>
-      </c>
-      <c r="K42" s="3">
-        <v>9257</v>
-      </c>
-      <c r="N42" s="3">
-        <v>8819</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>8299</v>
-      </c>
-      <c r="T42" s="3">
-        <v>7782</v>
-      </c>
-      <c r="W42" s="3">
-        <v>9280</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>10976</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>10888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="3">
-        <v>47201</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45657</v>
-      </c>
-      <c r="H43" s="3">
-        <v>46454</v>
-      </c>
-      <c r="K43" s="3">
-        <v>45305</v>
-      </c>
-      <c r="N43" s="3">
-        <v>50085</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>46862</v>
-      </c>
-      <c r="T43" s="3">
-        <v>44612</v>
-      </c>
-      <c r="W43" s="3">
-        <v>45114</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>44380</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="3">
-        <v>116535</v>
-      </c>
-      <c r="E44" s="3">
-        <v>111466</v>
-      </c>
-      <c r="H44" s="3">
-        <v>116467</v>
-      </c>
-      <c r="K44" s="3">
-        <v>107533</v>
-      </c>
-      <c r="N44" s="3">
-        <v>101122</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>94665</v>
-      </c>
-      <c r="T44" s="3">
-        <v>87331</v>
-      </c>
-      <c r="W44" s="3">
-        <v>87986</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>85549</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>83384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T45" t="s">
-        <v>13</v>
-      </c>
-      <c r="W45" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="3">
-        <v>116535</v>
-      </c>
-      <c r="E46" s="3">
-        <v>111466</v>
-      </c>
-      <c r="H46" s="3">
-        <v>116467</v>
-      </c>
-      <c r="K46" s="3">
-        <v>107533</v>
-      </c>
-      <c r="N46" s="3">
-        <v>101122</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>94665</v>
-      </c>
-      <c r="T46" s="3">
-        <v>87331</v>
-      </c>
-      <c r="W46" s="3">
-        <v>87986</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>85549</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>83384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="3">
-        <v>21050</v>
-      </c>
-      <c r="E49" s="3">
-        <v>13341</v>
-      </c>
-      <c r="H49" s="3">
-        <v>13465</v>
-      </c>
-      <c r="K49" s="3">
-        <v>13441</v>
-      </c>
-      <c r="N49" s="3">
-        <v>13821</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>21630</v>
-      </c>
-      <c r="T49" s="3">
-        <v>19205</v>
-      </c>
-      <c r="W49" s="3">
-        <v>20675</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>18515</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>21351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="3">
-        <v>21050</v>
-      </c>
-      <c r="E50" s="3">
-        <v>13341</v>
-      </c>
-      <c r="H50" s="3">
-        <v>12425</v>
-      </c>
-      <c r="K50" s="3">
-        <v>12408</v>
-      </c>
-      <c r="N50" s="3">
-        <v>12807</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>20617</v>
-      </c>
-      <c r="T50" s="3">
-        <v>19205</v>
-      </c>
-      <c r="W50" s="3">
-        <v>20169</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>17506</v>
-      </c>
-      <c r="AC50" s="3">
-        <v>20343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="3">
-        <v>96484</v>
-      </c>
-      <c r="E51" s="3">
-        <v>98125</v>
-      </c>
-      <c r="H51" s="3">
-        <v>103002</v>
-      </c>
-      <c r="K51" s="3">
-        <v>94092</v>
-      </c>
-      <c r="N51" s="3">
-        <v>87301</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>80035</v>
-      </c>
-      <c r="T51" s="3">
-        <v>73126</v>
-      </c>
-      <c r="W51" s="3">
-        <v>73311</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>71938</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>71033</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>205</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8336</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8887</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9373</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9087</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9907</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>10091</v>
-      </c>
-      <c r="T52" s="3">
-        <v>10302</v>
-      </c>
-      <c r="W52" s="3">
-        <v>10045</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>9988</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>10194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53">
-        <v>352</v>
-      </c>
-      <c r="E53">
-        <v>312</v>
-      </c>
-      <c r="H53">
-        <v>374</v>
-      </c>
-      <c r="K53">
-        <v>401</v>
-      </c>
-      <c r="N53">
-        <v>440</v>
-      </c>
-      <c r="Q53">
-        <v>512</v>
-      </c>
-      <c r="T53">
-        <v>423</v>
-      </c>
-      <c r="W53">
-        <v>495</v>
-      </c>
-      <c r="Z53">
-        <v>369</v>
-      </c>
-      <c r="AC53">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="3">
-        <v>20049</v>
-      </c>
-      <c r="E54" s="3">
-        <v>13340</v>
-      </c>
-      <c r="H54" s="3">
-        <v>12424</v>
-      </c>
-      <c r="K54" s="3">
-        <v>12407</v>
-      </c>
-      <c r="N54" s="3">
-        <v>12807</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>13617</v>
-      </c>
-      <c r="T54" s="3">
-        <v>14205</v>
-      </c>
-      <c r="W54" s="3">
-        <v>14169</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>12602</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>11343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1040</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1033</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1014</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>1013</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>506</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>1009</v>
-      </c>
-      <c r="AC55" s="3">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>7000</v>
-      </c>
-      <c r="T56" s="3">
-        <v>5000</v>
-      </c>
-      <c r="W56" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>3000</v>
-      </c>
-      <c r="AC56" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>1904</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>216</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3">
-        <v>5196</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>5190</v>
-      </c>
-      <c r="T64" s="3">
-        <v>5165</v>
-      </c>
-      <c r="W64" s="3">
-        <v>5108</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>5044</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AC41" s="3"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AC42" s="3"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AC43" s="3"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AC44" s="3"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AC46" s="3"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AC49" s="3"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AC50" s="3"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AC51" s="3"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AC52" s="3"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AC54" s="3"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AC64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21961,16 +21130,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27A711-3326-8748-BBA2-0A8473E9CC2B}">
-  <dimension ref="A1:AE38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6989F2E0-6CEA-4E33-97FA-036CA1EDD74F}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -21978,2570 +21160,1055 @@
         <v>44926</v>
       </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44926</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44742</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44742</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44742</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>44561</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>44561</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="L1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="M1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="N1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="O1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="P1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="R1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="S1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="W1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AC1" s="1">
         <v>43281</v>
       </c>
-      <c r="AD1" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="3">
+        <v>101477</v>
+      </c>
+      <c r="C3" s="3">
+        <v>95885</v>
+      </c>
+      <c r="D3" s="3">
+        <v>102153</v>
+      </c>
+      <c r="E3" s="3">
+        <v>93470</v>
+      </c>
+      <c r="F3" s="3">
+        <v>87136</v>
+      </c>
+      <c r="G3" s="3">
+        <v>82270</v>
+      </c>
+      <c r="H3" s="3">
+        <v>74954</v>
+      </c>
+      <c r="I3" s="3">
+        <v>76443</v>
+      </c>
+      <c r="J3" s="3">
+        <v>74495</v>
+      </c>
+      <c r="K3" s="3">
+        <v>73609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14891</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15475</v>
+      </c>
+      <c r="D4" s="3">
+        <v>14222</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13744</v>
+      </c>
+      <c r="F4" s="3">
+        <v>13808</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12303</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12275</v>
+      </c>
+      <c r="I4" s="3">
+        <v>11408</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10925</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>319</v>
+      </c>
+      <c r="F5">
+        <v>178</v>
+      </c>
+      <c r="G5">
+        <v>92</v>
+      </c>
+      <c r="H5">
+        <v>102</v>
+      </c>
+      <c r="I5">
+        <v>135</v>
+      </c>
+      <c r="J5">
+        <v>129</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3">
+        <v>116535</v>
+      </c>
+      <c r="C8" s="3">
+        <v>111466</v>
+      </c>
+      <c r="D8" s="3">
+        <v>116467</v>
+      </c>
+      <c r="E8" s="3">
+        <v>107533</v>
+      </c>
+      <c r="F8" s="3">
+        <v>101122</v>
+      </c>
+      <c r="G8" s="3">
+        <v>94665</v>
+      </c>
+      <c r="H8" s="3">
+        <v>87331</v>
+      </c>
+      <c r="I8" s="3">
+        <v>87986</v>
+      </c>
+      <c r="J8" s="3">
+        <v>85549</v>
+      </c>
+      <c r="K8" s="3">
+        <v>83384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="3">
+        <v>59223</v>
+      </c>
+      <c r="C10" s="3">
+        <v>56061</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60739</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52971</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42218</v>
+      </c>
+      <c r="G10" s="3">
+        <v>39504</v>
+      </c>
+      <c r="H10" s="3">
+        <v>34937</v>
+      </c>
+      <c r="I10" s="3">
+        <v>33592</v>
+      </c>
+      <c r="J10" s="3">
+        <v>30193</v>
+      </c>
+      <c r="K10" s="3">
+        <v>29723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10111</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9748</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9274</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9257</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8819</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8299</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7782</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9280</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10976</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3">
+        <v>47201</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46454</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45305</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50085</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46862</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44612</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45114</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44380</v>
+      </c>
+      <c r="K12" s="3">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="3">
+        <v>116535</v>
+      </c>
+      <c r="C13" s="3">
+        <v>111466</v>
+      </c>
+      <c r="D13" s="3">
+        <v>116467</v>
+      </c>
+      <c r="E13" s="3">
+        <v>107533</v>
+      </c>
+      <c r="F13" s="3">
+        <v>101122</v>
+      </c>
+      <c r="G13" s="3">
+        <v>94665</v>
+      </c>
+      <c r="H13" s="3">
+        <v>87331</v>
+      </c>
+      <c r="I13" s="3">
+        <v>87986</v>
+      </c>
+      <c r="J13" s="3">
+        <v>85549</v>
+      </c>
+      <c r="K13" s="3">
+        <v>83384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3">
+        <v>116535</v>
+      </c>
+      <c r="C15" s="3">
+        <v>111466</v>
+      </c>
+      <c r="D15" s="3">
+        <v>116467</v>
+      </c>
+      <c r="E15" s="3">
+        <v>107533</v>
+      </c>
+      <c r="F15" s="3">
+        <v>101122</v>
+      </c>
+      <c r="G15" s="3">
+        <v>94665</v>
+      </c>
+      <c r="H15" s="3">
+        <v>87331</v>
+      </c>
+      <c r="I15" s="3">
+        <v>87986</v>
+      </c>
+      <c r="J15" s="3">
+        <v>85549</v>
+      </c>
+      <c r="K15" s="3">
+        <v>83384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="3">
+        <v>21050</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13341</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13465</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13441</v>
+      </c>
+      <c r="F18" s="3">
+        <v>13821</v>
+      </c>
+      <c r="G18" s="3">
+        <v>21630</v>
+      </c>
+      <c r="H18" s="3">
+        <v>19205</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20675</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18515</v>
+      </c>
+      <c r="K18" s="3">
+        <v>21351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>21050</v>
+      </c>
+      <c r="C19" s="3">
+        <v>13341</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12425</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12408</v>
+      </c>
+      <c r="F19" s="3">
+        <v>12807</v>
+      </c>
+      <c r="G19" s="3">
+        <v>20617</v>
+      </c>
+      <c r="H19" s="3">
+        <v>19205</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20169</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17506</v>
+      </c>
+      <c r="K19" s="3">
+        <v>20343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3">
+        <v>96484</v>
+      </c>
+      <c r="C20" s="3">
+        <v>98125</v>
+      </c>
+      <c r="D20" s="3">
+        <v>103002</v>
+      </c>
+      <c r="E20" s="3">
+        <v>94092</v>
+      </c>
+      <c r="F20" s="3">
+        <v>87301</v>
+      </c>
+      <c r="G20" s="3">
+        <v>80035</v>
+      </c>
+      <c r="H20" s="3">
+        <v>73126</v>
+      </c>
+      <c r="I20" s="3">
+        <v>73311</v>
+      </c>
+      <c r="J20" s="3">
+        <v>71938</v>
+      </c>
+      <c r="K20" s="3">
+        <v>71033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8336</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8887</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9373</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9087</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9907</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10091</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10302</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10045</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9988</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>352</v>
+      </c>
+      <c r="C22">
+        <v>312</v>
+      </c>
+      <c r="D22">
+        <v>374</v>
+      </c>
+      <c r="E22">
+        <v>401</v>
+      </c>
+      <c r="F22">
+        <v>440</v>
+      </c>
+      <c r="G22">
+        <v>512</v>
+      </c>
+      <c r="H22">
+        <v>423</v>
+      </c>
+      <c r="I22">
+        <v>495</v>
+      </c>
+      <c r="J22">
+        <v>369</v>
+      </c>
+      <c r="K22">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20049</v>
+      </c>
+      <c r="C23" s="3">
+        <v>13340</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12424</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12407</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12807</v>
+      </c>
+      <c r="G23" s="3">
+        <v>13617</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14205</v>
+      </c>
+      <c r="I23" s="3">
+        <v>14169</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12602</v>
+      </c>
+      <c r="K23" s="3">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1033</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1014</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1013</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>506</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1009</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K25" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1904</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>2.56</v>
-      </c>
-      <c r="C3">
-        <v>12.01</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>5.89</v>
-      </c>
-      <c r="F3">
-        <v>14.96</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>17.48</v>
-      </c>
-      <c r="I3">
-        <v>17.88</v>
-      </c>
-      <c r="J3">
-        <v>55</v>
-      </c>
-      <c r="K3">
-        <v>10.62</v>
-      </c>
-      <c r="L3">
-        <v>16.87</v>
-      </c>
-      <c r="M3">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>7.69</v>
-      </c>
-      <c r="O3">
-        <v>16.79</v>
-      </c>
-      <c r="P3">
-        <v>17</v>
-      </c>
-      <c r="Q3">
-        <v>2.52</v>
-      </c>
-      <c r="R3">
-        <v>14.8</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>2.95</v>
-      </c>
-      <c r="U3">
-        <v>12.32</v>
-      </c>
-      <c r="V3">
-        <v>8</v>
-      </c>
-      <c r="W3">
-        <v>5.56</v>
-      </c>
-      <c r="X3">
-        <v>10.52</v>
-      </c>
-      <c r="Y3">
-        <v>25</v>
-      </c>
-      <c r="Z3">
-        <v>2.04</v>
-      </c>
-      <c r="AA3">
-        <v>10.45</v>
-      </c>
-      <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3">
-        <v>4.53</v>
-      </c>
-      <c r="AD3">
-        <v>9.81</v>
-      </c>
-      <c r="AE3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>89</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>89</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>89</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>89</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>92</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>92</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>94</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5">
-        <v>56.07</v>
-      </c>
-      <c r="C5">
-        <v>60.46</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>52.24</v>
-      </c>
-      <c r="F5">
-        <v>57.92</v>
-      </c>
-      <c r="G5">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>51.69</v>
-      </c>
-      <c r="I5">
-        <v>57.04</v>
-      </c>
-      <c r="J5">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>61.41</v>
-      </c>
-      <c r="L5">
-        <v>59.21</v>
-      </c>
-      <c r="M5">
-        <v>51</v>
-      </c>
-      <c r="N5">
-        <v>65.069999999999993</v>
-      </c>
-      <c r="O5">
-        <v>61.88</v>
-      </c>
-      <c r="P5">
-        <v>53</v>
-      </c>
-      <c r="Q5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="R5">
-        <v>65.38</v>
-      </c>
-      <c r="S5">
-        <v>58</v>
-      </c>
-      <c r="T5">
-        <v>67.67</v>
-      </c>
-      <c r="U5">
-        <v>68.02</v>
-      </c>
-      <c r="V5">
-        <v>42</v>
-      </c>
-      <c r="W5">
-        <v>67.33</v>
-      </c>
-      <c r="X5">
-        <v>69.069999999999993</v>
-      </c>
-      <c r="Y5">
-        <v>37</v>
-      </c>
-      <c r="Z5">
-        <v>67.94</v>
-      </c>
-      <c r="AA5">
-        <v>68.06</v>
-      </c>
-      <c r="AB5">
-        <v>42</v>
-      </c>
-      <c r="AC5">
-        <v>70.09</v>
-      </c>
-      <c r="AD5">
-        <v>67.5</v>
-      </c>
-      <c r="AE5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6">
-        <v>70.23</v>
-      </c>
-      <c r="C6">
-        <v>23.26</v>
-      </c>
-      <c r="D6">
-        <v>96</v>
-      </c>
-      <c r="E6">
-        <v>64.78</v>
-      </c>
-      <c r="F6">
-        <v>21.56</v>
-      </c>
-      <c r="G6">
-        <v>95</v>
-      </c>
-      <c r="H6">
-        <v>64.59</v>
-      </c>
-      <c r="I6">
-        <v>21.43</v>
-      </c>
-      <c r="J6">
-        <v>96</v>
-      </c>
-      <c r="K6">
-        <v>73.75</v>
-      </c>
-      <c r="L6">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="M6">
-        <v>98</v>
-      </c>
-      <c r="N6">
-        <v>78.849999999999994</v>
-      </c>
-      <c r="O6">
-        <v>21.92</v>
-      </c>
-      <c r="P6">
-        <v>99</v>
-      </c>
-      <c r="Q6">
-        <v>83.53</v>
-      </c>
-      <c r="R6">
-        <v>24.89</v>
-      </c>
-      <c r="S6">
-        <v>98</v>
-      </c>
-      <c r="T6">
-        <v>81.59</v>
-      </c>
-      <c r="U6">
-        <v>27.15</v>
-      </c>
-      <c r="V6">
-        <v>99</v>
-      </c>
-      <c r="W6">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="X6">
-        <v>27.38</v>
-      </c>
-      <c r="Y6">
-        <v>98</v>
-      </c>
-      <c r="Z6">
-        <v>81.3</v>
-      </c>
-      <c r="AA6">
-        <v>27.46</v>
-      </c>
-      <c r="AB6">
-        <v>97</v>
-      </c>
-      <c r="AC6">
-        <v>81.62</v>
-      </c>
-      <c r="AD6">
-        <v>26.85</v>
-      </c>
-      <c r="AE6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>32.33</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>31.38</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>22.53</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>19.54</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>14.63</v>
-      </c>
-      <c r="P10">
-        <v>36</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>16.66</v>
-      </c>
-      <c r="S10">
-        <v>33</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>20.82</v>
-      </c>
-      <c r="V10">
-        <v>29</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>22.8</v>
-      </c>
-      <c r="Y10">
-        <v>27</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>22.9</v>
-      </c>
-      <c r="AB10">
-        <v>23</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>22.46</v>
-      </c>
-      <c r="AE10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>22.01</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>21.61</v>
-      </c>
-      <c r="G11">
-        <v>99</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>25.98</v>
-      </c>
-      <c r="J11">
-        <v>99</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>26.91</v>
-      </c>
-      <c r="M11">
-        <v>99</v>
-      </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11">
-        <v>29.66</v>
-      </c>
-      <c r="P11">
-        <v>99</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>25.72</v>
-      </c>
-      <c r="S11">
-        <v>99</v>
-      </c>
-      <c r="T11">
-        <v>100</v>
-      </c>
-      <c r="U11">
-        <v>24.04</v>
-      </c>
-      <c r="V11">
-        <v>99</v>
-      </c>
-      <c r="W11">
-        <v>100</v>
-      </c>
-      <c r="X11">
-        <v>23.34</v>
-      </c>
-      <c r="Y11">
-        <v>99</v>
-      </c>
-      <c r="Z11">
-        <v>100</v>
-      </c>
-      <c r="AA11">
-        <v>25.13</v>
-      </c>
-      <c r="AB11">
-        <v>99</v>
-      </c>
-      <c r="AC11">
-        <v>100</v>
-      </c>
-      <c r="AD11">
-        <v>26.2</v>
-      </c>
-      <c r="AE11">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>18.09</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>18.5</v>
-      </c>
-      <c r="G12">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>21.84</v>
-      </c>
-      <c r="J12">
-        <v>22</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>22.92</v>
-      </c>
-      <c r="M12">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>23.72</v>
-      </c>
-      <c r="P12">
-        <v>23</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>23.95</v>
-      </c>
-      <c r="S12">
-        <v>22</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>22.82</v>
-      </c>
-      <c r="V12">
-        <v>22</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>21.67</v>
-      </c>
-      <c r="Y12">
-        <v>22</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>21.15</v>
-      </c>
-      <c r="AB12">
-        <v>22</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>22.76</v>
-      </c>
-      <c r="AE12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>3.59</v>
-      </c>
-      <c r="D13">
-        <v>47</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G13">
-        <v>46</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.66</v>
-      </c>
-      <c r="J13">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>5.96</v>
-      </c>
-      <c r="P13">
-        <v>45</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>7.3</v>
-      </c>
-      <c r="S13">
-        <v>46</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>7.96</v>
-      </c>
-      <c r="V13">
-        <v>45</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>8.19</v>
-      </c>
-      <c r="Y13">
-        <v>46</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>7.58</v>
-      </c>
-      <c r="AB13">
-        <v>47</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>6.96</v>
-      </c>
-      <c r="AE13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1.4</v>
-      </c>
-      <c r="D14">
-        <v>68</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1.4</v>
-      </c>
-      <c r="G14">
-        <v>69</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.66</v>
-      </c>
-      <c r="J14">
-        <v>69</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1.52</v>
-      </c>
-      <c r="M14">
-        <v>70</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1.28</v>
-      </c>
-      <c r="P14">
-        <v>72</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1.79</v>
-      </c>
-      <c r="S14">
-        <v>72</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="V14">
-        <v>71</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>1.99</v>
-      </c>
-      <c r="Y14">
-        <v>72</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>1.53</v>
-      </c>
-      <c r="AB14">
-        <v>75</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>1.31</v>
-      </c>
-      <c r="AE14">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
-      <c r="D15">
-        <v>92</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.04</v>
-      </c>
-      <c r="G15">
-        <v>91</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.02</v>
-      </c>
-      <c r="J15">
-        <v>92</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.04</v>
-      </c>
-      <c r="M15">
-        <v>93</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0.03</v>
-      </c>
-      <c r="P15">
-        <v>93</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>94</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>94</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>1.01</v>
-      </c>
-      <c r="Y15">
-        <v>95</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0.9</v>
-      </c>
-      <c r="AB15">
-        <v>95</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0.43</v>
-      </c>
-      <c r="AE15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.03</v>
-      </c>
-      <c r="D16">
-        <v>92</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>99</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.01</v>
-      </c>
-      <c r="J16">
-        <v>99</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.01</v>
-      </c>
-      <c r="M16">
-        <v>99</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0.03</v>
-      </c>
-      <c r="P16">
-        <v>99</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0.2</v>
-      </c>
-      <c r="S16">
-        <v>98</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>99</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>99</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>99</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0.02</v>
-      </c>
-      <c r="AE16">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1.86</v>
-      </c>
-      <c r="D17">
-        <v>72</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2.04</v>
-      </c>
-      <c r="G17">
-        <v>73</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2.09</v>
-      </c>
-      <c r="J17">
-        <v>75</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>2.11</v>
-      </c>
-      <c r="M17">
-        <v>74</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1.73</v>
-      </c>
-      <c r="P17">
-        <v>74</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.8</v>
-      </c>
-      <c r="S17">
-        <v>75</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>1.22</v>
-      </c>
-      <c r="V17">
-        <v>77</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y17">
-        <v>79</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0.94</v>
-      </c>
-      <c r="AB17">
-        <v>78</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0.81</v>
-      </c>
-      <c r="AE17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0.2</v>
-      </c>
-      <c r="D18">
-        <v>96</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.22</v>
-      </c>
-      <c r="G18">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.12</v>
-      </c>
-      <c r="J18">
-        <v>97</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.13</v>
-      </c>
-      <c r="M18">
-        <v>97</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0.17</v>
-      </c>
-      <c r="P18">
-        <v>96</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0.19</v>
-      </c>
-      <c r="S18">
-        <v>97</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0.08</v>
-      </c>
-      <c r="V18">
-        <v>97</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0.09</v>
-      </c>
-      <c r="Y18">
-        <v>98</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0.1</v>
-      </c>
-      <c r="AB18">
-        <v>97</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0.12</v>
-      </c>
-      <c r="AE18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.01</v>
-      </c>
-      <c r="D19">
-        <v>88</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0.01</v>
-      </c>
-      <c r="G19">
-        <v>88</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.01</v>
-      </c>
-      <c r="J19">
-        <v>89</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.01</v>
-      </c>
-      <c r="M19">
-        <v>88</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0.01</v>
-      </c>
-      <c r="P19">
-        <v>88</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0.01</v>
-      </c>
-      <c r="S19">
-        <v>88</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>91</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>92</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>93</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>99</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>99</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>100</v>
-      </c>
-      <c r="J20">
-        <v>99</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20">
-        <v>99</v>
-      </c>
-      <c r="N20">
-        <v>100</v>
-      </c>
-      <c r="O20">
-        <v>100</v>
-      </c>
-      <c r="P20">
-        <v>99</v>
-      </c>
-      <c r="Q20">
-        <v>100</v>
-      </c>
-      <c r="R20">
-        <v>100</v>
-      </c>
-      <c r="S20">
-        <v>99</v>
-      </c>
-      <c r="T20">
-        <v>100</v>
-      </c>
-      <c r="U20">
-        <v>100</v>
-      </c>
-      <c r="V20">
-        <v>99</v>
-      </c>
-      <c r="W20">
-        <v>100</v>
-      </c>
-      <c r="X20">
-        <v>100</v>
-      </c>
-      <c r="Y20">
-        <v>99</v>
-      </c>
-      <c r="Z20">
-        <v>100</v>
-      </c>
-      <c r="AA20">
-        <v>100</v>
-      </c>
-      <c r="AB20">
-        <v>99</v>
-      </c>
-      <c r="AC20">
-        <v>100</v>
-      </c>
-      <c r="AD20">
-        <v>100</v>
-      </c>
-      <c r="AE20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>-0.77</v>
-      </c>
-      <c r="D23">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>-0.59</v>
-      </c>
-      <c r="G23">
-        <v>99</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>-0.09</v>
-      </c>
-      <c r="J23">
-        <v>98</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>-0.02</v>
-      </c>
-      <c r="M23">
-        <v>95</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>95</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>-0.01</v>
-      </c>
-      <c r="S23">
-        <v>97</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>-0.01</v>
-      </c>
-      <c r="V23">
-        <v>97</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>-0.01</v>
-      </c>
-      <c r="Y23">
-        <v>96</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>-0.09</v>
-      </c>
-      <c r="AB23">
-        <v>98</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>-0.15</v>
-      </c>
-      <c r="AE23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24">
-        <v>-5.21</v>
-      </c>
-      <c r="C24">
-        <v>-8.9700000000000006</v>
-      </c>
-      <c r="D24">
-        <v>78</v>
-      </c>
-      <c r="E24">
-        <v>-5.85</v>
-      </c>
-      <c r="F24">
-        <v>-7.5</v>
-      </c>
-      <c r="G24">
-        <v>67</v>
-      </c>
-      <c r="H24">
-        <v>2.85</v>
-      </c>
-      <c r="I24">
-        <v>0.02</v>
-      </c>
-      <c r="J24">
-        <v>94</v>
-      </c>
-      <c r="K24">
-        <v>4.54</v>
-      </c>
-      <c r="L24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="M24">
-        <v>95</v>
-      </c>
-      <c r="N24">
-        <v>6.46</v>
-      </c>
-      <c r="O24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P24">
-        <v>97</v>
-      </c>
-      <c r="Q24">
-        <v>5.53</v>
-      </c>
-      <c r="R24">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="S24">
-        <v>95</v>
-      </c>
-      <c r="T24">
-        <v>3.63</v>
-      </c>
-      <c r="U24">
-        <v>0.73</v>
-      </c>
-      <c r="V24">
-        <v>98</v>
-      </c>
-      <c r="W24">
-        <v>2.79</v>
-      </c>
-      <c r="X24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Y24">
-        <v>97</v>
-      </c>
-      <c r="Z24">
-        <v>-0.41</v>
-      </c>
-      <c r="AA24">
-        <v>-1.6</v>
-      </c>
-      <c r="AB24">
-        <v>86</v>
-      </c>
-      <c r="AC24">
-        <v>-0.81</v>
-      </c>
-      <c r="AD24">
-        <v>-2.14</v>
-      </c>
-      <c r="AE24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>-5.41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25">
-        <v>-4.3600000000000003</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25">
-        <v>0.94</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25">
-        <v>1.34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25">
-        <v>1.93</v>
-      </c>
-      <c r="P25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R25">
-        <v>1.96</v>
-      </c>
-      <c r="S25" t="s">
-        <v>13</v>
-      </c>
-      <c r="T25" t="s">
-        <v>13</v>
-      </c>
-      <c r="U25">
-        <v>0.99</v>
-      </c>
-      <c r="V25" t="s">
-        <v>13</v>
-      </c>
-      <c r="W25" t="s">
-        <v>13</v>
-      </c>
-      <c r="X25">
-        <v>0.77</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA25">
-        <v>-0.71</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25">
-        <v>-1</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>-3.72</v>
-      </c>
-      <c r="D26">
-        <v>97</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>-2.36</v>
-      </c>
-      <c r="G26">
-        <v>97</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0.02</v>
-      </c>
-      <c r="J26">
-        <v>85</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.04</v>
-      </c>
-      <c r="M26">
-        <v>81</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P26">
-        <v>79</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0.06</v>
-      </c>
-      <c r="S26">
-        <v>81</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0.02</v>
-      </c>
-      <c r="V26">
-        <v>83</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0.03</v>
-      </c>
-      <c r="Y26">
-        <v>83</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>-0.02</v>
-      </c>
-      <c r="AB26">
-        <v>94</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>-0.04</v>
-      </c>
-      <c r="AE26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27">
-        <v>40.83</v>
-      </c>
-      <c r="C27">
-        <v>24.01</v>
-      </c>
-      <c r="D27">
-        <v>71</v>
-      </c>
-      <c r="E27">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="F27">
-        <v>21.64</v>
-      </c>
-      <c r="G27">
-        <v>68</v>
-      </c>
-      <c r="H27">
-        <v>56.41</v>
-      </c>
-      <c r="I27">
-        <v>23.81</v>
-      </c>
-      <c r="J27">
-        <v>80</v>
-      </c>
-      <c r="K27">
-        <v>63.91</v>
-      </c>
-      <c r="L27">
-        <v>23.82</v>
-      </c>
-      <c r="M27">
-        <v>83</v>
-      </c>
-      <c r="N27">
-        <v>75.489999999999995</v>
-      </c>
-      <c r="O27">
-        <v>28.33</v>
-      </c>
-      <c r="P27">
-        <v>87</v>
-      </c>
-      <c r="Q27">
-        <v>67.56</v>
-      </c>
-      <c r="R27">
-        <v>33.54</v>
-      </c>
-      <c r="S27">
-        <v>77</v>
-      </c>
-      <c r="T27">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="U27">
-        <v>30.7</v>
-      </c>
-      <c r="V27">
-        <v>82</v>
-      </c>
-      <c r="W27">
-        <v>67.239999999999995</v>
-      </c>
-      <c r="X27">
-        <v>30.23</v>
-      </c>
-      <c r="Y27">
-        <v>79</v>
-      </c>
-      <c r="Z27">
-        <v>65.42</v>
-      </c>
-      <c r="AA27">
-        <v>30.16</v>
-      </c>
-      <c r="AB27">
-        <v>80</v>
-      </c>
-      <c r="AC27">
-        <v>72.930000000000007</v>
-      </c>
-      <c r="AD27">
-        <v>27.95</v>
-      </c>
-      <c r="AE27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>24.75</v>
-      </c>
-      <c r="D28">
-        <v>99</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <v>24.66</v>
-      </c>
-      <c r="G28">
-        <v>99</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28">
-        <v>23.98</v>
-      </c>
-      <c r="J28">
-        <v>99</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>23.51</v>
-      </c>
-      <c r="M28">
-        <v>99</v>
-      </c>
-      <c r="N28">
-        <v>100</v>
-      </c>
-      <c r="O28">
-        <v>25.33</v>
-      </c>
-      <c r="P28">
-        <v>99</v>
-      </c>
-      <c r="Q28">
-        <v>100</v>
-      </c>
-      <c r="R28">
-        <v>26.05</v>
-      </c>
-      <c r="S28">
-        <v>99</v>
-      </c>
-      <c r="T28">
-        <v>100</v>
-      </c>
-      <c r="U28">
-        <v>28.2</v>
-      </c>
-      <c r="V28">
-        <v>99</v>
-      </c>
-      <c r="W28">
-        <v>100</v>
-      </c>
-      <c r="X28">
-        <v>28.13</v>
-      </c>
-      <c r="Y28">
-        <v>99</v>
-      </c>
-      <c r="Z28">
-        <v>100</v>
-      </c>
-      <c r="AA28">
-        <v>28.26</v>
-      </c>
-      <c r="AB28">
-        <v>99</v>
-      </c>
-      <c r="AC28">
-        <v>100</v>
-      </c>
-      <c r="AD28">
-        <v>27.6</v>
-      </c>
-      <c r="AE28">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0.02</v>
-      </c>
-      <c r="D29">
-        <v>89</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0.05</v>
-      </c>
-      <c r="G29">
-        <v>86</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0.03</v>
-      </c>
-      <c r="J29">
-        <v>87</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M29">
-        <v>82</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0.1</v>
-      </c>
-      <c r="P29">
-        <v>81</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S29">
-        <v>77</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V29">
-        <v>82</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0.1</v>
-      </c>
-      <c r="Y29">
-        <v>80</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0.05</v>
-      </c>
-      <c r="AB29">
-        <v>83</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0.08</v>
-      </c>
-      <c r="AE29">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3358</v>
-      </c>
-      <c r="E31" s="3">
-        <v>7341</v>
-      </c>
-      <c r="H31" s="3">
-        <v>23153</v>
-      </c>
-      <c r="K31" s="3">
-        <v>13193</v>
-      </c>
-      <c r="N31" s="3">
-        <v>8994</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>2970</v>
-      </c>
-      <c r="T31" s="3">
-        <v>3158</v>
-      </c>
-      <c r="W31" s="3">
-        <v>6049</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>2128</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>4819</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="3">
-        <v>19687</v>
-      </c>
-      <c r="E32" s="3">
-        <v>23547</v>
-      </c>
-      <c r="H32" s="3">
-        <v>38294</v>
-      </c>
-      <c r="K32" s="3">
-        <v>29194</v>
-      </c>
-      <c r="N32" s="3">
-        <v>24862</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>24747</v>
-      </c>
-      <c r="T32" s="3">
-        <v>29831</v>
-      </c>
-      <c r="W32" s="3">
-        <v>28184</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>17982</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>21648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F33" s="3">
+        <v>5196</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5190</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5165</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5108</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5044</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="3">
-        <v>17846</v>
-      </c>
-      <c r="E36" s="3">
-        <v>14904</v>
-      </c>
-      <c r="H36" s="3">
-        <v>16417</v>
-      </c>
-      <c r="K36" s="3">
-        <v>14648</v>
-      </c>
-      <c r="N36" s="3">
-        <v>15495</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>14271</v>
-      </c>
-      <c r="T36" s="3">
-        <v>14242</v>
-      </c>
-      <c r="W36" s="3">
-        <v>12398</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>12948</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>11290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="3">
-        <v>74259</v>
-      </c>
-      <c r="E37" s="3">
-        <v>65825</v>
-      </c>
-      <c r="H37" s="3">
-        <v>69142</v>
-      </c>
-      <c r="K37" s="3">
-        <v>76971</v>
-      </c>
-      <c r="N37" s="3">
-        <v>76759</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>84265</v>
-      </c>
-      <c r="T37" s="3">
-        <v>73206</v>
-      </c>
-      <c r="W37" s="3">
-        <v>74216</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>71844</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>75586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
         <v>0</v>
       </c>
     </row>
@@ -24551,6 +22218,2672 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27A711-3326-8748-BBA2-0A8473E9CC2B}">
+  <dimension ref="A1:AE29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="U1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="X1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2.56</v>
+      </c>
+      <c r="C3">
+        <v>12.01</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>5.89</v>
+      </c>
+      <c r="F3">
+        <v>14.96</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>17.48</v>
+      </c>
+      <c r="I3">
+        <v>17.88</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>10.62</v>
+      </c>
+      <c r="L3">
+        <v>16.87</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>7.69</v>
+      </c>
+      <c r="O3">
+        <v>16.79</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <v>2.52</v>
+      </c>
+      <c r="R3">
+        <v>14.8</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>2.95</v>
+      </c>
+      <c r="U3">
+        <v>12.32</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>5.56</v>
+      </c>
+      <c r="X3">
+        <v>10.52</v>
+      </c>
+      <c r="Y3">
+        <v>25</v>
+      </c>
+      <c r="Z3">
+        <v>2.04</v>
+      </c>
+      <c r="AA3">
+        <v>10.45</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>4.53</v>
+      </c>
+      <c r="AD3">
+        <v>9.81</v>
+      </c>
+      <c r="AE3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>89</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>89</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>89</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>92</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>92</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>94</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5">
+        <v>56.07</v>
+      </c>
+      <c r="C5">
+        <v>60.46</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>52.24</v>
+      </c>
+      <c r="F5">
+        <v>57.92</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>51.69</v>
+      </c>
+      <c r="I5">
+        <v>57.04</v>
+      </c>
+      <c r="J5">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>61.41</v>
+      </c>
+      <c r="L5">
+        <v>59.21</v>
+      </c>
+      <c r="M5">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="O5">
+        <v>61.88</v>
+      </c>
+      <c r="P5">
+        <v>53</v>
+      </c>
+      <c r="Q5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="R5">
+        <v>65.38</v>
+      </c>
+      <c r="S5">
+        <v>58</v>
+      </c>
+      <c r="T5">
+        <v>67.67</v>
+      </c>
+      <c r="U5">
+        <v>68.02</v>
+      </c>
+      <c r="V5">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>67.33</v>
+      </c>
+      <c r="X5">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="Y5">
+        <v>37</v>
+      </c>
+      <c r="Z5">
+        <v>67.94</v>
+      </c>
+      <c r="AA5">
+        <v>68.06</v>
+      </c>
+      <c r="AB5">
+        <v>42</v>
+      </c>
+      <c r="AC5">
+        <v>70.09</v>
+      </c>
+      <c r="AD5">
+        <v>67.5</v>
+      </c>
+      <c r="AE5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6">
+        <v>70.23</v>
+      </c>
+      <c r="C6">
+        <v>23.26</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>64.78</v>
+      </c>
+      <c r="F6">
+        <v>21.56</v>
+      </c>
+      <c r="G6">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>64.59</v>
+      </c>
+      <c r="I6">
+        <v>21.43</v>
+      </c>
+      <c r="J6">
+        <v>96</v>
+      </c>
+      <c r="K6">
+        <v>73.75</v>
+      </c>
+      <c r="L6">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="O6">
+        <v>21.92</v>
+      </c>
+      <c r="P6">
+        <v>99</v>
+      </c>
+      <c r="Q6">
+        <v>83.53</v>
+      </c>
+      <c r="R6">
+        <v>24.89</v>
+      </c>
+      <c r="S6">
+        <v>98</v>
+      </c>
+      <c r="T6">
+        <v>81.59</v>
+      </c>
+      <c r="U6">
+        <v>27.15</v>
+      </c>
+      <c r="V6">
+        <v>99</v>
+      </c>
+      <c r="W6">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="X6">
+        <v>27.38</v>
+      </c>
+      <c r="Y6">
+        <v>98</v>
+      </c>
+      <c r="Z6">
+        <v>81.3</v>
+      </c>
+      <c r="AA6">
+        <v>27.46</v>
+      </c>
+      <c r="AB6">
+        <v>97</v>
+      </c>
+      <c r="AC6">
+        <v>81.62</v>
+      </c>
+      <c r="AD6">
+        <v>26.85</v>
+      </c>
+      <c r="AE6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>32.33</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>31.38</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>22.53</v>
+      </c>
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>19.54</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.63</v>
+      </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>16.66</v>
+      </c>
+      <c r="S10">
+        <v>33</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>20.82</v>
+      </c>
+      <c r="V10">
+        <v>29</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>22.8</v>
+      </c>
+      <c r="Y10">
+        <v>27</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>22.9</v>
+      </c>
+      <c r="AB10">
+        <v>23</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>22.46</v>
+      </c>
+      <c r="AE10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>22.01</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>21.61</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>25.98</v>
+      </c>
+      <c r="J11">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>26.91</v>
+      </c>
+      <c r="M11">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>29.66</v>
+      </c>
+      <c r="P11">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>25.72</v>
+      </c>
+      <c r="S11">
+        <v>99</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>24.04</v>
+      </c>
+      <c r="V11">
+        <v>99</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>23.34</v>
+      </c>
+      <c r="Y11">
+        <v>99</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>25.13</v>
+      </c>
+      <c r="AB11">
+        <v>99</v>
+      </c>
+      <c r="AC11">
+        <v>100</v>
+      </c>
+      <c r="AD11">
+        <v>26.2</v>
+      </c>
+      <c r="AE11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>18.09</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>18.5</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>21.84</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>22.92</v>
+      </c>
+      <c r="M12">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>23.72</v>
+      </c>
+      <c r="P12">
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>23.95</v>
+      </c>
+      <c r="S12">
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>22.82</v>
+      </c>
+      <c r="V12">
+        <v>22</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>21.67</v>
+      </c>
+      <c r="Y12">
+        <v>22</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>21.15</v>
+      </c>
+      <c r="AB12">
+        <v>22</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>22.76</v>
+      </c>
+      <c r="AE12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3.59</v>
+      </c>
+      <c r="D13">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G13">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>4.66</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5.96</v>
+      </c>
+      <c r="P13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>7.3</v>
+      </c>
+      <c r="S13">
+        <v>46</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>7.96</v>
+      </c>
+      <c r="V13">
+        <v>45</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>8.19</v>
+      </c>
+      <c r="Y13">
+        <v>46</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>7.58</v>
+      </c>
+      <c r="AB13">
+        <v>47</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>6.96</v>
+      </c>
+      <c r="AE13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.66</v>
+      </c>
+      <c r="J14">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.52</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.28</v>
+      </c>
+      <c r="P14">
+        <v>72</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.79</v>
+      </c>
+      <c r="S14">
+        <v>72</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V14">
+        <v>71</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1.99</v>
+      </c>
+      <c r="Y14">
+        <v>72</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1.53</v>
+      </c>
+      <c r="AB14">
+        <v>75</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1.31</v>
+      </c>
+      <c r="AE14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.03</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.04</v>
+      </c>
+      <c r="G15">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.02</v>
+      </c>
+      <c r="J15">
+        <v>92</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.04</v>
+      </c>
+      <c r="M15">
+        <v>93</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.03</v>
+      </c>
+      <c r="P15">
+        <v>93</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>94</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>94</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1.01</v>
+      </c>
+      <c r="Y15">
+        <v>95</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0.9</v>
+      </c>
+      <c r="AB15">
+        <v>95</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.43</v>
+      </c>
+      <c r="AE15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.03</v>
+      </c>
+      <c r="D16">
+        <v>92</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.01</v>
+      </c>
+      <c r="J16">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.03</v>
+      </c>
+      <c r="P16">
+        <v>99</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.2</v>
+      </c>
+      <c r="S16">
+        <v>98</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>99</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>99</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>99</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.02</v>
+      </c>
+      <c r="AE16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1.86</v>
+      </c>
+      <c r="D17">
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.04</v>
+      </c>
+      <c r="G17">
+        <v>73</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2.09</v>
+      </c>
+      <c r="J17">
+        <v>75</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2.11</v>
+      </c>
+      <c r="M17">
+        <v>74</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.73</v>
+      </c>
+      <c r="P17">
+        <v>74</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>75</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1.22</v>
+      </c>
+      <c r="V17">
+        <v>77</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>79</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0.94</v>
+      </c>
+      <c r="AB17">
+        <v>78</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.81</v>
+      </c>
+      <c r="AE17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <v>96</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.22</v>
+      </c>
+      <c r="G18">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.12</v>
+      </c>
+      <c r="J18">
+        <v>97</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.13</v>
+      </c>
+      <c r="M18">
+        <v>97</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.17</v>
+      </c>
+      <c r="P18">
+        <v>96</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.19</v>
+      </c>
+      <c r="S18">
+        <v>97</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.08</v>
+      </c>
+      <c r="V18">
+        <v>97</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.09</v>
+      </c>
+      <c r="Y18">
+        <v>98</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0.1</v>
+      </c>
+      <c r="AB18">
+        <v>97</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0.12</v>
+      </c>
+      <c r="AE18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.01</v>
+      </c>
+      <c r="J19">
+        <v>89</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+      <c r="M19">
+        <v>88</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.01</v>
+      </c>
+      <c r="P19">
+        <v>88</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.01</v>
+      </c>
+      <c r="S19">
+        <v>88</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>91</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>92</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>93</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>99</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>99</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <v>99</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
+      </c>
+      <c r="U20">
+        <v>100</v>
+      </c>
+      <c r="V20">
+        <v>99</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>100</v>
+      </c>
+      <c r="Y20">
+        <v>99</v>
+      </c>
+      <c r="Z20">
+        <v>100</v>
+      </c>
+      <c r="AA20">
+        <v>100</v>
+      </c>
+      <c r="AB20">
+        <v>99</v>
+      </c>
+      <c r="AC20">
+        <v>100</v>
+      </c>
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-0.77</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>-0.59</v>
+      </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>-0.09</v>
+      </c>
+      <c r="J23">
+        <v>98</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-0.02</v>
+      </c>
+      <c r="M23">
+        <v>95</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>95</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>-0.01</v>
+      </c>
+      <c r="S23">
+        <v>97</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>-0.01</v>
+      </c>
+      <c r="V23">
+        <v>97</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>-0.01</v>
+      </c>
+      <c r="Y23">
+        <v>96</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>-0.09</v>
+      </c>
+      <c r="AB23">
+        <v>98</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>-0.15</v>
+      </c>
+      <c r="AE23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24">
+        <v>-5.21</v>
+      </c>
+      <c r="C24">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="D24">
+        <v>78</v>
+      </c>
+      <c r="E24">
+        <v>-5.85</v>
+      </c>
+      <c r="F24">
+        <v>-7.5</v>
+      </c>
+      <c r="G24">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>2.85</v>
+      </c>
+      <c r="I24">
+        <v>0.02</v>
+      </c>
+      <c r="J24">
+        <v>94</v>
+      </c>
+      <c r="K24">
+        <v>4.54</v>
+      </c>
+      <c r="L24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M24">
+        <v>95</v>
+      </c>
+      <c r="N24">
+        <v>6.46</v>
+      </c>
+      <c r="O24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P24">
+        <v>97</v>
+      </c>
+      <c r="Q24">
+        <v>5.53</v>
+      </c>
+      <c r="R24">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S24">
+        <v>95</v>
+      </c>
+      <c r="T24">
+        <v>3.63</v>
+      </c>
+      <c r="U24">
+        <v>0.73</v>
+      </c>
+      <c r="V24">
+        <v>98</v>
+      </c>
+      <c r="W24">
+        <v>2.79</v>
+      </c>
+      <c r="X24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y24">
+        <v>97</v>
+      </c>
+      <c r="Z24">
+        <v>-0.41</v>
+      </c>
+      <c r="AA24">
+        <v>-1.6</v>
+      </c>
+      <c r="AB24">
+        <v>86</v>
+      </c>
+      <c r="AC24">
+        <v>-0.81</v>
+      </c>
+      <c r="AD24">
+        <v>-2.14</v>
+      </c>
+      <c r="AE24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>-5.41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>0.94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>1.34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>1.93</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <v>1.96</v>
+      </c>
+      <c r="S25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25">
+        <v>0.99</v>
+      </c>
+      <c r="V25" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25">
+        <v>0.77</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25">
+        <v>-0.71</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25">
+        <v>-1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-3.72</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>-2.36</v>
+      </c>
+      <c r="G26">
+        <v>97</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.02</v>
+      </c>
+      <c r="J26">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0.04</v>
+      </c>
+      <c r="M26">
+        <v>81</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P26">
+        <v>79</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.06</v>
+      </c>
+      <c r="S26">
+        <v>81</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+      <c r="V26">
+        <v>83</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0.03</v>
+      </c>
+      <c r="Y26">
+        <v>83</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>-0.02</v>
+      </c>
+      <c r="AB26">
+        <v>94</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>-0.04</v>
+      </c>
+      <c r="AE26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27">
+        <v>40.83</v>
+      </c>
+      <c r="C27">
+        <v>24.01</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="F27">
+        <v>21.64</v>
+      </c>
+      <c r="G27">
+        <v>68</v>
+      </c>
+      <c r="H27">
+        <v>56.41</v>
+      </c>
+      <c r="I27">
+        <v>23.81</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <v>63.91</v>
+      </c>
+      <c r="L27">
+        <v>23.82</v>
+      </c>
+      <c r="M27">
+        <v>83</v>
+      </c>
+      <c r="N27">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="O27">
+        <v>28.33</v>
+      </c>
+      <c r="P27">
+        <v>87</v>
+      </c>
+      <c r="Q27">
+        <v>67.56</v>
+      </c>
+      <c r="R27">
+        <v>33.54</v>
+      </c>
+      <c r="S27">
+        <v>77</v>
+      </c>
+      <c r="T27">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="U27">
+        <v>30.7</v>
+      </c>
+      <c r="V27">
+        <v>82</v>
+      </c>
+      <c r="W27">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="X27">
+        <v>30.23</v>
+      </c>
+      <c r="Y27">
+        <v>79</v>
+      </c>
+      <c r="Z27">
+        <v>65.42</v>
+      </c>
+      <c r="AA27">
+        <v>30.16</v>
+      </c>
+      <c r="AB27">
+        <v>80</v>
+      </c>
+      <c r="AC27">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="AD27">
+        <v>27.95</v>
+      </c>
+      <c r="AE27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>24.75</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>24.66</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>23.98</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>23.51</v>
+      </c>
+      <c r="M28">
+        <v>99</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>25.33</v>
+      </c>
+      <c r="P28">
+        <v>99</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>26.05</v>
+      </c>
+      <c r="S28">
+        <v>99</v>
+      </c>
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28">
+        <v>28.2</v>
+      </c>
+      <c r="V28">
+        <v>99</v>
+      </c>
+      <c r="W28">
+        <v>100</v>
+      </c>
+      <c r="X28">
+        <v>28.13</v>
+      </c>
+      <c r="Y28">
+        <v>99</v>
+      </c>
+      <c r="Z28">
+        <v>100</v>
+      </c>
+      <c r="AA28">
+        <v>28.26</v>
+      </c>
+      <c r="AB28">
+        <v>99</v>
+      </c>
+      <c r="AC28">
+        <v>100</v>
+      </c>
+      <c r="AD28">
+        <v>27.6</v>
+      </c>
+      <c r="AE28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.02</v>
+      </c>
+      <c r="D29">
+        <v>89</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.03</v>
+      </c>
+      <c r="J29">
+        <v>87</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M29">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.1</v>
+      </c>
+      <c r="P29">
+        <v>81</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S29">
+        <v>77</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V29">
+        <v>82</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.1</v>
+      </c>
+      <c r="Y29">
+        <v>80</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0.05</v>
+      </c>
+      <c r="AB29">
+        <v>83</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0.08</v>
+      </c>
+      <c r="AE29">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3AB93-74C1-4FCA-90F4-B22411543705}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3358</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7341</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23153</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13193</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8994</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2970</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3158</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6049</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2128</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="3">
+        <v>19687</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23547</v>
+      </c>
+      <c r="D3" s="3">
+        <v>38294</v>
+      </c>
+      <c r="E3" s="3">
+        <v>29194</v>
+      </c>
+      <c r="F3" s="3">
+        <v>24862</v>
+      </c>
+      <c r="G3" s="3">
+        <v>24747</v>
+      </c>
+      <c r="H3" s="3">
+        <v>29831</v>
+      </c>
+      <c r="I3" s="3">
+        <v>28184</v>
+      </c>
+      <c r="J3" s="3">
+        <v>17982</v>
+      </c>
+      <c r="K3" s="3">
+        <v>21648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17846</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14904</v>
+      </c>
+      <c r="D7" s="3">
+        <v>16417</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14648</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15495</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14271</v>
+      </c>
+      <c r="H7" s="3">
+        <v>14242</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12398</v>
+      </c>
+      <c r="J7" s="3">
+        <v>12948</v>
+      </c>
+      <c r="K7" s="3">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3">
+        <v>74259</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65825</v>
+      </c>
+      <c r="D8" s="3">
+        <v>69142</v>
+      </c>
+      <c r="E8" s="3">
+        <v>76971</v>
+      </c>
+      <c r="F8" s="3">
+        <v>76759</v>
+      </c>
+      <c r="G8" s="3">
+        <v>84265</v>
+      </c>
+      <c r="H8" s="3">
+        <v>73206</v>
+      </c>
+      <c r="I8" s="3">
+        <v>74216</v>
+      </c>
+      <c r="J8" s="3">
+        <v>71844</v>
+      </c>
+      <c r="K8" s="3">
+        <v>75586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBE220D-DCC4-9346-89FD-72A181314EAA}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -24558,9 +24891,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -24595,17 +24928,17 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -24640,7 +24973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -24675,7 +25008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -24710,7 +25043,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -24745,7 +25078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -24780,12 +25113,12 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -24820,7 +25153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -24855,7 +25188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -24890,7 +25223,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -24925,7 +25258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -24960,7 +25293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -24995,12 +25328,12 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -25035,7 +25368,7 @@
         <v>10876</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -25070,7 +25403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>269</v>
       </c>
@@ -25105,7 +25438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -25140,17 +25473,17 @@
         <v>10876</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -25185,7 +25518,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -25220,7 +25553,7 @@
         <v>17143</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -25255,7 +25588,7 @@
         <v>63297</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -25290,7 +25623,7 @@
         <v>81314</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>277</v>
       </c>
@@ -25325,12 +25658,12 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -25365,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -25400,7 +25733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>275</v>
       </c>
@@ -25435,7 +25768,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>279</v>
       </c>
@@ -25470,7 +25803,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>277</v>
       </c>
@@ -25505,12 +25838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -25545,7 +25878,7 @@
         <v>83717</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>281</v>
       </c>
@@ -25580,7 +25913,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -25615,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -25650,7 +25983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>284</v>
       </c>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8499CA14-1370-44A6-8C63-8F1E7EA9B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AB1681-1663-4395-A9AF-EF611BD07CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{CBC808D1-A8CF-4296-82E0-74DDD7CC2639}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="2" r:id="rId1"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="4" r:id="rId2"/>
-    <sheet name="Balance Sheet Percentage " sheetId="6" r:id="rId3"/>
+    <sheet name="Balance Sheet Percentage" sheetId="6" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="8" r:id="rId4"/>
     <sheet name="Liquidity and Funding" sheetId="9" r:id="rId5"/>
     <sheet name="Liquidity and Funding - Totals" sheetId="15" r:id="rId6"/>
@@ -10892,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EE5F82-601E-C34C-8B0B-FBBAA457FFD1}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18257,7 +18257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CBA93-4EF9-384F-BC5E-9C557A143CBE}">
   <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Data/Citizens_bank.xlsx
+++ b/Data/Citizens_bank.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D140E25-1BF6-5748-9EB5-FB103B8EAE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDC322-402A-B045-87F6-D6534A76A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" activeTab="8" xr2:uid="{3EA588DE-E41F-7A4F-AC78-37886CEFB235}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="23160" windowHeight="17480" firstSheet="3" activeTab="5" xr2:uid="{3EA588DE-E41F-7A4F-AC78-37886CEFB235}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="2" r:id="rId2"/>
     <sheet name="Balance Sheet Percentage" sheetId="3" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="4" r:id="rId4"/>
-    <sheet name="Liquidity &amp; Funding" sheetId="5" r:id="rId5"/>
-    <sheet name="Liquidity &amp; Funding - Totals" sheetId="9" r:id="rId6"/>
+    <sheet name="Liquidity and Funding" sheetId="5" r:id="rId5"/>
+    <sheet name="Liquidity and Funding - Totals" sheetId="9" r:id="rId6"/>
     <sheet name="Liquidity &amp; Investment" sheetId="6" r:id="rId7"/>
     <sheet name="Liquidity &amp; Investment - Totals" sheetId="8" r:id="rId8"/>
     <sheet name="Capital Analysis D" sheetId="7" r:id="rId9"/>
@@ -21155,7 +21155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89764655-15AC-4E45-B914-D4916EA3F486}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -24976,7 +24976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C15685-7B33-D848-A778-297645A250EB}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
